--- a/DataTable/Sound.xlsx
+++ b/DataTable/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>wuyangguan:</t>
@@ -51,7 +51,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>声音id</t>
   </si>
@@ -96,118 +96,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>Assets/Res/Sound/hallBgm.mp3</t>
+    <t>Assets/GamePlay/Sound/Button.ogg</t>
   </si>
   <si>
     <t>环境声音</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/battleBgm.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/gameFail.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/gameVictory.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/BossBattle.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/HeroUpStar.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/PetUnlock.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/TalentUnlock.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Gold.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/BossBattleReady.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/GetReward.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/PopItem.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/OpenTreasureChest.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/ClickButtom.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/lucky_spin.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/GlockShotSoundEff.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/electicgunvoice.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/203.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/204.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/205.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/206.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/208.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/209.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/210.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/211.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/212.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/213.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/214.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/215.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/2151.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/217.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/218.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/219.mp3</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/220.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/222.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/223.wav</t>
-  </si>
-  <si>
-    <t>Assets/Res/Sound/Weapon/224.mp3</t>
   </si>
 </sst>
 </file>
@@ -215,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -381,16 +273,16 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,24 +292,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,19 +602,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,7 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,16 +647,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -791,89 +665,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,18 +770,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1258,13 +1120,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:H$1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="44.5416666666667" style="1" customWidth="1"/>
@@ -1325,754 +1187,14 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>103</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>104</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
-        <v>107</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6">
-        <v>108</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>109</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>110</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>111</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>112</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>113</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6">
-        <v>114</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>115</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:6">
-      <c r="A18" s="8">
-        <v>201</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8">
-        <v>202</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>203</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>204</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8">
-        <v>205</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>206</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10">
-        <v>208</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10">
-        <v>209</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10">
-        <v>210</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>211</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10">
-        <v>212</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
-        <v>213</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10">
-        <v>214</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10">
-        <v>215</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10">
-        <v>2151</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:6">
-      <c r="A33" s="10">
-        <v>216</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10">
-        <v>217</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10">
-        <v>218</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10">
-        <v>219</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10">
-        <v>220</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10">
-        <v>222</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="10">
-        <v>223</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="11">
-        <v>224</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTable/Sound.xlsx
+++ b/DataTable/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,40 +31,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>wuyangguan</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wuyangguan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0-1</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>声音id</t>
   </si>
@@ -99,7 +67,25 @@
     <t>Assets/GamePlay/Sound/Button.ogg</t>
   </si>
   <si>
-    <t>环境声音</t>
+    <t>Assets/GamePlay/Sound/Coin.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/Fly.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/HandleScrewTurn_BW.8641.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/Magical Win 1.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/rotate.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/Select.ogg</t>
+  </si>
+  <si>
+    <t>Assets/GamePlay/Sound/Win.ogg</t>
   </si>
 </sst>
 </file>
@@ -107,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,17 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -291,181 +266,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,19 +577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,7 +598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +622,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -665,89 +640,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,18 +733,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,87 +1104,218 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="44.5416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.4454545454545" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>101</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>102</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:6">
+      <c r="A6" s="9">
+        <v>104</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
+        <v>105</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>106</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>107</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>108</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1213,7 +1328,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1230,7 +1345,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
